--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H2">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I2">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J2">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.285734787949522</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N2">
-        <v>0.285734787949522</v>
+        <v>1.183099</v>
       </c>
       <c r="O2">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P2">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q2">
-        <v>9.873708788528178</v>
+        <v>19.42278694961511</v>
       </c>
       <c r="R2">
-        <v>9.873708788528178</v>
+        <v>174.805082546536</v>
       </c>
       <c r="S2">
-        <v>0.0676002236426396</v>
+        <v>0.09919250326247546</v>
       </c>
       <c r="T2">
-        <v>0.0676002236426396</v>
+        <v>0.09919250326247546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H3">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I3">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J3">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.536414534618517</v>
+        <v>0.043492</v>
       </c>
       <c r="N3">
-        <v>0.536414534618517</v>
+        <v>0.130476</v>
       </c>
       <c r="O3">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P3">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q3">
-        <v>18.53607305839416</v>
+        <v>2.142008023029334</v>
       </c>
       <c r="R3">
-        <v>18.53607305839416</v>
+        <v>19.278072207264</v>
       </c>
       <c r="S3">
-        <v>0.1269069921992844</v>
+        <v>0.01093927140135758</v>
       </c>
       <c r="T3">
-        <v>0.1269069921992844</v>
+        <v>0.01093927140135758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>112.611194676887</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H4">
-        <v>112.611194676887</v>
+        <v>147.751864</v>
       </c>
       <c r="I4">
-        <v>0.6338698392875581</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J4">
-        <v>0.6338698392875581</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.285734787949522</v>
+        <v>0.564779</v>
       </c>
       <c r="N4">
-        <v>0.285734787949522</v>
+        <v>1.694337</v>
       </c>
       <c r="O4">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P4">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q4">
-        <v>32.17693583174265</v>
+        <v>27.81571666601867</v>
       </c>
       <c r="R4">
-        <v>32.17693583174265</v>
+        <v>250.341449994168</v>
       </c>
       <c r="S4">
-        <v>0.2202989884498009</v>
+        <v>0.1420553380572825</v>
       </c>
       <c r="T4">
-        <v>0.2202989884498009</v>
+        <v>0.1420553380572825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,433 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H5">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I5">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J5">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.536414534618517</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N5">
-        <v>0.536414534618517</v>
+        <v>1.183099</v>
       </c>
       <c r="O5">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P5">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q5">
-        <v>60.40628158543755</v>
+        <v>44.47876281115711</v>
       </c>
       <c r="R5">
-        <v>60.40628158543755</v>
+        <v>400.308865300414</v>
       </c>
       <c r="S5">
-        <v>0.4135708508377572</v>
+        <v>0.2271537980981665</v>
       </c>
       <c r="T5">
-        <v>0.4135708508377572</v>
+        <v>0.2271537980981665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.36172956356006</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H6">
-        <v>0.36172956356006</v>
+        <v>338.356186</v>
       </c>
       <c r="I6">
-        <v>0.002036116044921371</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J6">
-        <v>0.002036116044921371</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.285734787949522</v>
+        <v>0.043492</v>
       </c>
       <c r="N6">
-        <v>0.285734787949522</v>
+        <v>0.130476</v>
       </c>
       <c r="O6">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P6">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q6">
-        <v>0.1033587201389069</v>
+        <v>4.905262413837334</v>
       </c>
       <c r="R6">
-        <v>0.1033587201389069</v>
+        <v>44.147361724536</v>
       </c>
       <c r="S6">
-        <v>0.000707644183807109</v>
+        <v>0.02505125856809647</v>
       </c>
       <c r="T6">
-        <v>0.000707644183807109</v>
+        <v>0.02505125856809647</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.36172956356006</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H7">
-        <v>0.36172956356006</v>
+        <v>338.356186</v>
       </c>
       <c r="I7">
-        <v>0.002036116044921371</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J7">
-        <v>0.002036116044921371</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.536414534618517</v>
+        <v>0.564779</v>
       </c>
       <c r="N7">
-        <v>0.536414534618517</v>
+        <v>1.694337</v>
       </c>
       <c r="O7">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P7">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q7">
-        <v>0.1940369954948288</v>
+        <v>63.69882279096467</v>
       </c>
       <c r="R7">
-        <v>0.1940369954948288</v>
+        <v>573.289405118682</v>
       </c>
       <c r="S7">
-        <v>0.001328471861114262</v>
+        <v>0.3253109712781881</v>
       </c>
       <c r="T7">
-        <v>0.001328471861114262</v>
+        <v>0.3253109712781881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.348127300682419</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H8">
-        <v>0.348127300682419</v>
+        <v>0.202021</v>
       </c>
       <c r="I8">
-        <v>0.001959551150916504</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J8">
-        <v>0.001959551150916504</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.285734787949522</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N8">
-        <v>0.285734787949522</v>
+        <v>1.183099</v>
       </c>
       <c r="O8">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P8">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q8">
-        <v>0.09947208043993047</v>
+        <v>0.02655676034211112</v>
       </c>
       <c r="R8">
-        <v>0.09947208043993047</v>
+        <v>0.239010843079</v>
       </c>
       <c r="S8">
-        <v>0.0006810343537527298</v>
+        <v>0.0001356258267008297</v>
       </c>
       <c r="T8">
-        <v>0.0006810343537527298</v>
+        <v>0.0001356258267008297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.348127300682419</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H9">
-        <v>0.348127300682419</v>
+        <v>0.202021</v>
       </c>
       <c r="I9">
-        <v>0.001959551150916504</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J9">
-        <v>0.001959551150916504</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.536414534618517</v>
+        <v>0.043492</v>
       </c>
       <c r="N9">
-        <v>0.536414534618517</v>
+        <v>0.130476</v>
       </c>
       <c r="O9">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P9">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q9">
-        <v>0.1867405439835603</v>
+        <v>0.002928765777333334</v>
       </c>
       <c r="R9">
-        <v>0.1867405439835603</v>
+        <v>0.026358891996</v>
       </c>
       <c r="S9">
-        <v>0.001278516797163774</v>
+        <v>1.495725663246901E-05</v>
       </c>
       <c r="T9">
-        <v>0.001278516797163774</v>
+        <v>1.495725663246901E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>29.7801012595844</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H10">
-        <v>29.7801012595844</v>
+        <v>0.202021</v>
       </c>
       <c r="I10">
-        <v>0.1676272776746799</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J10">
-        <v>0.1676272776746799</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.285734787949522</v>
+        <v>0.564779</v>
       </c>
       <c r="N10">
-        <v>0.285734787949522</v>
+        <v>1.694337</v>
       </c>
       <c r="O10">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P10">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q10">
-        <v>8.509210918522641</v>
+        <v>0.03803240611966667</v>
       </c>
       <c r="R10">
-        <v>8.509210918522641</v>
+        <v>0.342291655077</v>
       </c>
       <c r="S10">
-        <v>0.05825820605351952</v>
+        <v>0.0001942321448457007</v>
       </c>
       <c r="T10">
-        <v>0.05825820605351952</v>
+        <v>0.0001942321448457007</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.369332</v>
+      </c>
+      <c r="H11">
+        <v>1.107996</v>
+      </c>
+      <c r="I11">
+        <v>0.001891159303049775</v>
+      </c>
+      <c r="J11">
+        <v>0.001891159303049775</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3943663333333334</v>
+      </c>
+      <c r="N11">
+        <v>1.183099</v>
+      </c>
+      <c r="O11">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="P11">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="Q11">
+        <v>0.1456521066226667</v>
+      </c>
+      <c r="R11">
+        <v>1.310868959604</v>
+      </c>
+      <c r="S11">
+        <v>0.0007438477855332489</v>
+      </c>
+      <c r="T11">
+        <v>0.0007438477855332489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.369332</v>
+      </c>
+      <c r="H12">
+        <v>1.107996</v>
+      </c>
+      <c r="I12">
+        <v>0.001891159303049775</v>
+      </c>
+      <c r="J12">
+        <v>0.001891159303049775</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.043492</v>
+      </c>
+      <c r="N12">
+        <v>0.130476</v>
+      </c>
+      <c r="O12">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="P12">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="Q12">
+        <v>0.016062987344</v>
+      </c>
+      <c r="R12">
+        <v>0.144566886096</v>
+      </c>
+      <c r="S12">
+        <v>8.203394953865752E-05</v>
+      </c>
+      <c r="T12">
+        <v>8.203394953865752E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.369332</v>
+      </c>
+      <c r="H13">
+        <v>1.107996</v>
+      </c>
+      <c r="I13">
+        <v>0.001891159303049775</v>
+      </c>
+      <c r="J13">
+        <v>0.001891159303049775</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.564779</v>
+      </c>
+      <c r="N13">
+        <v>1.694337</v>
+      </c>
+      <c r="O13">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="P13">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="Q13">
+        <v>0.208590957628</v>
+      </c>
+      <c r="R13">
+        <v>1.877318618652</v>
+      </c>
+      <c r="S13">
+        <v>0.001065277567977869</v>
+      </c>
+      <c r="T13">
+        <v>0.001065277567977869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3504243333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.051273</v>
+      </c>
+      <c r="I14">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="J14">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3943663333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.183099</v>
+      </c>
+      <c r="O14">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="P14">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="Q14">
+        <v>0.1381955594474445</v>
+      </c>
+      <c r="R14">
+        <v>1.243760035027</v>
+      </c>
+      <c r="S14">
+        <v>0.000705767072300708</v>
+      </c>
+      <c r="T14">
+        <v>0.000705767072300708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3504243333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.051273</v>
+      </c>
+      <c r="I15">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="J15">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.043492</v>
+      </c>
+      <c r="N15">
+        <v>0.130476</v>
+      </c>
+      <c r="O15">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="P15">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="Q15">
+        <v>0.01524065510533334</v>
+      </c>
+      <c r="R15">
+        <v>0.137165895948</v>
+      </c>
+      <c r="S15">
+        <v>7.783428481091369E-05</v>
+      </c>
+      <c r="T15">
+        <v>7.783428481091369E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>29.7801012595844</v>
-      </c>
-      <c r="H11">
-        <v>29.7801012595844</v>
-      </c>
-      <c r="I11">
-        <v>0.1676272776746799</v>
-      </c>
-      <c r="J11">
-        <v>0.1676272776746799</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.536414534618517</v>
-      </c>
-      <c r="N11">
-        <v>0.536414534618517</v>
-      </c>
-      <c r="O11">
-        <v>0.6524539033164801</v>
-      </c>
-      <c r="P11">
-        <v>0.6524539033164801</v>
-      </c>
-      <c r="Q11">
-        <v>15.97447915805228</v>
-      </c>
-      <c r="R11">
-        <v>15.97447915805228</v>
-      </c>
-      <c r="S11">
-        <v>0.1093690716211604</v>
-      </c>
-      <c r="T11">
-        <v>0.1093690716211604</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3504243333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.051273</v>
+      </c>
+      <c r="I16">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="J16">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.564779</v>
+      </c>
+      <c r="N16">
+        <v>1.694337</v>
+      </c>
+      <c r="O16">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="P16">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="Q16">
+        <v>0.1979123045556667</v>
+      </c>
+      <c r="R16">
+        <v>1.781210741001</v>
+      </c>
+      <c r="S16">
+        <v>0.001010741505132508</v>
+      </c>
+      <c r="T16">
+        <v>0.001010741505132508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H17">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J17">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3943663333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.183099</v>
+      </c>
+      <c r="O17">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="P17">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="Q17">
+        <v>12.80541097490478</v>
+      </c>
+      <c r="R17">
+        <v>115.248698774143</v>
+      </c>
+      <c r="S17">
+        <v>0.06539745162219122</v>
+      </c>
+      <c r="T17">
+        <v>0.06539745162219122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H18">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I18">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J18">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.043492</v>
+      </c>
+      <c r="N18">
+        <v>0.130476</v>
+      </c>
+      <c r="O18">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="P18">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="Q18">
+        <v>1.412222309681333</v>
+      </c>
+      <c r="R18">
+        <v>12.710000787132</v>
+      </c>
+      <c r="S18">
+        <v>0.007212243352295134</v>
+      </c>
+      <c r="T18">
+        <v>0.007212243352295134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H19">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I19">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J19">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.564779</v>
+      </c>
+      <c r="N19">
+        <v>1.694337</v>
+      </c>
+      <c r="O19">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="P19">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="Q19">
+        <v>18.33885550996767</v>
+      </c>
+      <c r="R19">
+        <v>165.049699589709</v>
+      </c>
+      <c r="S19">
+        <v>0.09365684696647415</v>
+      </c>
+      <c r="T19">
+        <v>0.09365684696647415</v>
       </c>
     </row>
   </sheetData>
